--- a/interactive.xlsx
+++ b/interactive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12083\Documents\claman\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154C15A3-3A7C-493B-B659-FC625A029454}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982790EC-E018-47F4-B92F-F59DC24B6E04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="924" yWindow="2232" windowWidth="16092" windowHeight="7344" xr2:uid="{DBED5AFF-BE05-4432-AAED-E26F4A8EB6E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{DBED5AFF-BE05-4432-AAED-E26F4A8EB6E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>chat</t>
   </si>
   <si>
     <t>zoom</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>date</t>
@@ -78,10 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +403,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,7 +413,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -418,10 +422,12 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>43831</v>
       </c>
       <c r="B2">
@@ -430,10 +436,12 @@
       <c r="C2">
         <v>67</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>43831</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>43832</v>
       </c>
       <c r="B3">
@@ -442,10 +450,12 @@
       <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>43832</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>43833</v>
       </c>
       <c r="B4">
@@ -454,22 +464,24 @@
       <c r="C4">
         <v>421</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>43833</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
